--- a/uploads/updated_data_1733589460714.xlsx
+++ b/uploads/updated_data_1733589460714.xlsx
@@ -4429,14 +4429,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B574" sqref="B574"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.125" customWidth="1"/>
@@ -4470,7 +4469,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -4494,7 +4493,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -4518,7 +4517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -4542,7 +4541,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -4566,7 +4565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -4590,7 +4589,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -4614,7 +4613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -4638,7 +4637,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -4662,7 +4661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -4686,7 +4685,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -4710,7 +4709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -4734,7 +4733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -4758,7 +4757,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -4782,7 +4781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -4806,7 +4805,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -4830,7 +4829,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -4854,7 +4853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -4878,7 +4877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -4902,7 +4901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -4926,7 +4925,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -4950,7 +4949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -4974,7 +4973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -4998,7 +4997,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -5022,7 +5021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -5046,7 +5045,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -5070,7 +5069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -5094,7 +5093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -5118,7 +5117,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -5142,7 +5141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -5166,7 +5165,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -5190,7 +5189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -5214,7 +5213,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -5238,7 +5237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -5262,7 +5261,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -5286,7 +5285,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -5310,7 +5309,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -5334,7 +5333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -5358,7 +5357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -5382,7 +5381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -5406,7 +5405,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -5430,7 +5429,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -5454,7 +5453,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -5478,7 +5477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -5502,7 +5501,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -5526,7 +5525,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -5550,7 +5549,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -5574,7 +5573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -5598,7 +5597,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -5622,7 +5621,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -5646,7 +5645,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -5670,7 +5669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -5694,7 +5693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -5718,7 +5717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -5742,7 +5741,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -5766,7 +5765,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -5790,7 +5789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -5814,7 +5813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>57</v>
       </c>
@@ -5838,7 +5837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -5862,7 +5861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -5886,7 +5885,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -5910,7 +5909,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -5934,7 +5933,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -5958,7 +5957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -5982,7 +5981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -6006,7 +6005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -6030,7 +6029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -6054,7 +6053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>67</v>
       </c>
@@ -6078,7 +6077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>68</v>
       </c>
@@ -6102,7 +6101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>69</v>
       </c>
@@ -6126,7 +6125,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>70</v>
       </c>
@@ -6150,7 +6149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>71</v>
       </c>
@@ -6174,7 +6173,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>72</v>
       </c>
@@ -6198,7 +6197,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>73</v>
       </c>
@@ -6222,7 +6221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>74</v>
       </c>
@@ -6246,7 +6245,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>75</v>
       </c>
@@ -6270,7 +6269,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>76</v>
       </c>
@@ -6294,7 +6293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>77</v>
       </c>
@@ -6318,7 +6317,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>78</v>
       </c>
@@ -6342,7 +6341,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>79</v>
       </c>
@@ -6366,7 +6365,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>80</v>
       </c>
@@ -6390,7 +6389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>81</v>
       </c>
@@ -6414,7 +6413,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>82</v>
       </c>
@@ -6438,7 +6437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>83</v>
       </c>
@@ -6462,7 +6461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>84</v>
       </c>
@@ -6486,7 +6485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>85</v>
       </c>
@@ -6510,7 +6509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>86</v>
       </c>
@@ -6534,7 +6533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>87</v>
       </c>
@@ -6558,7 +6557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>88</v>
       </c>
@@ -6582,7 +6581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>89</v>
       </c>
@@ -6606,7 +6605,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>90</v>
       </c>
@@ -6630,7 +6629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>91</v>
       </c>
@@ -6654,7 +6653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>92</v>
       </c>
@@ -6678,7 +6677,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>93</v>
       </c>
@@ -6702,7 +6701,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>94</v>
       </c>
@@ -6726,7 +6725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>95</v>
       </c>
@@ -6750,7 +6749,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>96</v>
       </c>
@@ -6774,7 +6773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>97</v>
       </c>
@@ -6798,7 +6797,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>98</v>
       </c>
@@ -6822,7 +6821,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>99</v>
       </c>
@@ -6846,7 +6845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>100</v>
       </c>
@@ -6870,7 +6869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <v>101</v>
       </c>
@@ -6894,7 +6893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <v>102</v>
       </c>
@@ -6918,7 +6917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <v>103</v>
       </c>
@@ -6942,7 +6941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <v>104</v>
       </c>
@@ -6966,7 +6965,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
         <v>105</v>
       </c>
@@ -6990,7 +6989,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
         <v>106</v>
       </c>
@@ -7014,7 +7013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <v>107</v>
       </c>
@@ -7038,7 +7037,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
         <v>108</v>
       </c>
@@ -7062,7 +7061,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
         <v>109</v>
       </c>
@@ -7086,7 +7085,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
         <v>110</v>
       </c>
@@ -7110,7 +7109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
         <v>111</v>
       </c>
@@ -7134,7 +7133,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
         <v>112</v>
       </c>
@@ -7158,7 +7157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
         <v>113</v>
       </c>
@@ -7182,7 +7181,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>114</v>
       </c>
@@ -7206,7 +7205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>115</v>
       </c>
@@ -7230,7 +7229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
         <v>116</v>
       </c>
@@ -7254,7 +7253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
         <v>117</v>
       </c>
@@ -7278,7 +7277,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
         <v>118</v>
       </c>
@@ -7302,7 +7301,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
         <v>119</v>
       </c>
@@ -7326,7 +7325,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
         <v>120</v>
       </c>
@@ -7350,7 +7349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
         <v>121</v>
       </c>
@@ -7374,7 +7373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
         <v>122</v>
       </c>
@@ -7398,7 +7397,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
         <v>123</v>
       </c>
@@ -7422,7 +7421,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
         <v>124</v>
       </c>
@@ -7446,7 +7445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
         <v>125</v>
       </c>
@@ -7470,7 +7469,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
         <v>126</v>
       </c>
@@ -7494,7 +7493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
         <v>127</v>
       </c>
@@ -7518,7 +7517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
         <v>128</v>
       </c>
@@ -7542,7 +7541,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
         <v>129</v>
       </c>
@@ -7566,7 +7565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
         <v>130</v>
       </c>
@@ -7590,7 +7589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
         <v>131</v>
       </c>
@@ -7614,7 +7613,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
         <v>132</v>
       </c>
@@ -7638,7 +7637,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
         <v>133</v>
       </c>
@@ -7662,7 +7661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
         <v>134</v>
       </c>
@@ -7686,7 +7685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A136" s="6">
         <v>135</v>
       </c>
@@ -7710,7 +7709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A137" s="6">
         <v>136</v>
       </c>
@@ -7734,7 +7733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A138" s="6">
         <v>137</v>
       </c>
@@ -7758,7 +7757,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A139" s="6">
         <v>138</v>
       </c>
@@ -7806,7 +7805,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A141" s="6">
         <v>140</v>
       </c>
@@ -7830,7 +7829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A142" s="6">
         <v>141</v>
       </c>
@@ -7854,7 +7853,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
         <v>142</v>
       </c>
@@ -7878,7 +7877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A144" s="6">
         <v>143</v>
       </c>
@@ -7902,7 +7901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A145" s="6">
         <v>144</v>
       </c>
@@ -7926,7 +7925,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
         <v>145</v>
       </c>
@@ -7950,7 +7949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A147" s="6">
         <v>146</v>
       </c>
@@ -7974,7 +7973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A148" s="6">
         <v>147</v>
       </c>
@@ -7998,7 +7997,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A149" s="6">
         <v>148</v>
       </c>
@@ -8022,7 +8021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
         <v>149</v>
       </c>
@@ -8046,7 +8045,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A151" s="6">
         <v>150</v>
       </c>
@@ -8070,7 +8069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
         <v>151</v>
       </c>
@@ -8094,7 +8093,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A153" s="6">
         <v>152</v>
       </c>
@@ -8118,7 +8117,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
         <v>153</v>
       </c>
@@ -8142,7 +8141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
         <v>154</v>
       </c>
@@ -8166,7 +8165,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <v>155</v>
       </c>
@@ -8190,7 +8189,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
         <v>156</v>
       </c>
@@ -8214,7 +8213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
         <v>157</v>
       </c>
@@ -8238,7 +8237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
         <v>158</v>
       </c>
@@ -8262,7 +8261,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
         <v>159</v>
       </c>
@@ -8286,7 +8285,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
         <v>160</v>
       </c>
@@ -8310,7 +8309,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
         <v>161</v>
       </c>
@@ -8334,7 +8333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
         <v>162</v>
       </c>
@@ -8358,7 +8357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
         <v>163</v>
       </c>
@@ -8382,7 +8381,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
         <v>164</v>
       </c>
@@ -8406,7 +8405,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
         <v>165</v>
       </c>
@@ -8430,7 +8429,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
         <v>166</v>
       </c>
@@ -8454,7 +8453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
         <v>167</v>
       </c>
@@ -8478,7 +8477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A169" s="6">
         <v>168</v>
       </c>
@@ -8502,7 +8501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A170" s="6">
         <v>169</v>
       </c>
@@ -8526,7 +8525,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A171" s="6">
         <v>170</v>
       </c>
@@ -8550,7 +8549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="6">
         <v>171</v>
       </c>
@@ -8574,7 +8573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A173" s="6">
         <v>172</v>
       </c>
@@ -8598,7 +8597,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A174" s="6">
         <v>173</v>
       </c>
@@ -8622,7 +8621,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A175" s="6">
         <v>174</v>
       </c>
@@ -8646,7 +8645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A176" s="6">
         <v>175</v>
       </c>
@@ -8670,7 +8669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A177" s="6">
         <v>176</v>
       </c>
@@ -8694,7 +8693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A178" s="6">
         <v>177</v>
       </c>
@@ -8718,7 +8717,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A179" s="6">
         <v>178</v>
       </c>
@@ -8742,7 +8741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="6">
         <v>179</v>
       </c>
@@ -8766,7 +8765,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A181" s="6">
         <v>180</v>
       </c>
@@ -8790,7 +8789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A182" s="6">
         <v>181</v>
       </c>
@@ -8814,7 +8813,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A183" s="6">
         <v>182</v>
       </c>
@@ -8838,7 +8837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A184" s="6">
         <v>183</v>
       </c>
@@ -8862,7 +8861,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A185" s="6">
         <v>184</v>
       </c>
@@ -8886,7 +8885,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A186" s="6">
         <v>185</v>
       </c>
@@ -8910,7 +8909,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A187" s="6">
         <v>186</v>
       </c>
@@ -8934,7 +8933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A188" s="6">
         <v>187</v>
       </c>
@@ -8958,7 +8957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A189" s="6">
         <v>188</v>
       </c>
@@ -8982,7 +8981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="6">
         <v>189</v>
       </c>
@@ -9006,7 +9005,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A191" s="6">
         <v>190</v>
       </c>
@@ -9030,7 +9029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A192" s="6">
         <v>191</v>
       </c>
@@ -9054,7 +9053,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A193" s="6">
         <v>192</v>
       </c>
@@ -9078,7 +9077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A194" s="6">
         <v>193</v>
       </c>
@@ -9102,7 +9101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A195" s="6">
         <v>194</v>
       </c>
@@ -9126,7 +9125,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="6">
         <v>195</v>
       </c>
@@ -9150,7 +9149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A197" s="6">
         <v>196</v>
       </c>
@@ -9174,7 +9173,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A198" s="6">
         <v>197</v>
       </c>
@@ -9198,7 +9197,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A199" s="6">
         <v>198</v>
       </c>
@@ -9222,7 +9221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A200" s="6">
         <v>199</v>
       </c>
@@ -9246,7 +9245,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A201" s="6">
         <v>200</v>
       </c>
@@ -9270,7 +9269,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A202" s="6">
         <v>201</v>
       </c>
@@ -9294,7 +9293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A203" s="6">
         <v>202</v>
       </c>
@@ -9318,7 +9317,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A204" s="6">
         <v>203</v>
       </c>
@@ -9342,7 +9341,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A205" s="6">
         <v>204</v>
       </c>
@@ -9366,7 +9365,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A206" s="6">
         <v>205</v>
       </c>
@@ -9390,7 +9389,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A207" s="6">
         <v>206</v>
       </c>
@@ -9414,7 +9413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A208" s="6">
         <v>207</v>
       </c>
@@ -9438,7 +9437,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A209" s="6">
         <v>208</v>
       </c>
@@ -9462,7 +9461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="6">
         <v>209</v>
       </c>
@@ -9486,7 +9485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A211" s="6">
         <v>210</v>
       </c>
@@ -9510,7 +9509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="6">
         <v>211</v>
       </c>
@@ -9534,7 +9533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A213" s="6">
         <v>212</v>
       </c>
@@ -9558,7 +9557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A214" s="6">
         <v>213</v>
       </c>
@@ -9582,7 +9581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A215" s="6">
         <v>214</v>
       </c>
@@ -9606,7 +9605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A216" s="6">
         <v>215</v>
       </c>
@@ -9630,7 +9629,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A217" s="6">
         <v>216</v>
       </c>
@@ -9654,7 +9653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A218" s="6">
         <v>217</v>
       </c>
@@ -9678,7 +9677,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A219" s="6">
         <v>218</v>
       </c>
@@ -9702,7 +9701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A220" s="6">
         <v>219</v>
       </c>
@@ -9726,7 +9725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A221" s="6">
         <v>220</v>
       </c>
@@ -9750,7 +9749,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A222" s="6">
         <v>221</v>
       </c>
@@ -9774,7 +9773,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A223" s="6">
         <v>222</v>
       </c>
@@ -9798,7 +9797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="6">
         <v>223</v>
       </c>
@@ -9822,7 +9821,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A225" s="6">
         <v>224</v>
       </c>
@@ -9846,7 +9845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A226" s="6">
         <v>225</v>
       </c>
@@ -9870,7 +9869,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A227" s="6">
         <v>226</v>
       </c>
@@ -9894,7 +9893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A228" s="6">
         <v>227</v>
       </c>
@@ -9918,7 +9917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A229" s="6">
         <v>228</v>
       </c>
@@ -9942,7 +9941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="230" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A230" s="6">
         <v>229</v>
       </c>
@@ -9966,7 +9965,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A231" s="6">
         <v>230</v>
       </c>
@@ -9990,7 +9989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A232" s="6">
         <v>231</v>
       </c>
@@ -10014,7 +10013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A233" s="6">
         <v>232</v>
       </c>
@@ -10038,7 +10037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="6">
         <v>233</v>
       </c>
@@ -10062,7 +10061,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A235" s="6">
         <v>234</v>
       </c>
@@ -10086,7 +10085,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A236" s="6">
         <v>235</v>
       </c>
@@ -10110,7 +10109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A237" s="6">
         <v>236</v>
       </c>
@@ -10134,7 +10133,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A238" s="6">
         <v>237</v>
       </c>
@@ -10158,7 +10157,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A239" s="6">
         <v>238</v>
       </c>
@@ -10182,7 +10181,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A240" s="6">
         <v>239</v>
       </c>
@@ -10206,7 +10205,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A241" s="6">
         <v>240</v>
       </c>
@@ -10230,7 +10229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="6">
         <v>241</v>
       </c>
@@ -10254,7 +10253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A243" s="6">
         <v>242</v>
       </c>
@@ -10278,7 +10277,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A244" s="6">
         <v>243</v>
       </c>
@@ -10302,7 +10301,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="245" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A245" s="6">
         <v>244</v>
       </c>
@@ -10326,7 +10325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A246" s="6">
         <v>245</v>
       </c>
@@ -10350,7 +10349,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A247" s="6">
         <v>246</v>
       </c>
@@ -10374,7 +10373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="248" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A248" s="6">
         <v>247</v>
       </c>
@@ -10398,7 +10397,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="249" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A249" s="6">
         <v>248</v>
       </c>
@@ -10422,7 +10421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A250" s="6">
         <v>249</v>
       </c>
@@ -10446,7 +10445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A251" s="6">
         <v>250</v>
       </c>
@@ -10470,7 +10469,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A252" s="6">
         <v>251</v>
       </c>
@@ -10494,7 +10493,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="253" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A253" s="6">
         <v>252</v>
       </c>
@@ -10518,7 +10517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="254" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A254" s="6">
         <v>253</v>
       </c>
@@ -10542,7 +10541,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="255" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A255" s="6">
         <v>254</v>
       </c>
@@ -10566,7 +10565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="256" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A256" s="6">
         <v>255</v>
       </c>
@@ -10590,7 +10589,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="257" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A257" s="6">
         <v>256</v>
       </c>
@@ -10614,7 +10613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="258" spans="1:7" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A258" s="6">
         <v>257</v>
       </c>
@@ -10638,7 +10637,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="259" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A259" s="6">
         <v>258</v>
       </c>
@@ -10686,7 +10685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A261" s="6">
         <v>260</v>
       </c>
@@ -10710,7 +10709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="262" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A262" s="6">
         <v>261</v>
       </c>
@@ -10734,7 +10733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="263" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A263" s="6">
         <v>262</v>
       </c>
@@ -10758,7 +10757,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="264" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A264" s="6">
         <v>263</v>
       </c>
@@ -10782,7 +10781,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="265" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A265" s="6">
         <v>264</v>
       </c>
@@ -10806,7 +10805,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="266" spans="1:7" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A266" s="6">
         <v>265</v>
       </c>
@@ -10830,7 +10829,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="267" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A267" s="6">
         <v>266</v>
       </c>
@@ -10854,7 +10853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="268" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A268" s="6">
         <v>267</v>
       </c>
@@ -10878,7 +10877,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="269" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A269" s="6">
         <v>268</v>
       </c>
@@ -10902,7 +10901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="270" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A270" s="6">
         <v>269</v>
       </c>
@@ -10926,7 +10925,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="271" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A271" s="6">
         <v>270</v>
       </c>
@@ -10950,7 +10949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="272" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A272" s="6">
         <v>271</v>
       </c>
@@ -10974,7 +10973,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="273" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A273" s="6">
         <v>272</v>
       </c>
@@ -10998,7 +10997,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="274" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A274" s="6">
         <v>273</v>
       </c>
@@ -11022,7 +11021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="275" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A275" s="6">
         <v>274</v>
       </c>
@@ -11070,7 +11069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="277" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A277" s="6">
         <v>276</v>
       </c>
@@ -11094,7 +11093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="278" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A278" s="6">
         <v>277</v>
       </c>
@@ -11118,7 +11117,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="279" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A279" s="6">
         <v>278</v>
       </c>
@@ -11142,7 +11141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="280" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A280" s="6">
         <v>279</v>
       </c>
@@ -11166,7 +11165,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="281" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A281" s="6">
         <v>280</v>
       </c>
@@ -11190,7 +11189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="282" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A282" s="6">
         <v>281</v>
       </c>
@@ -11214,7 +11213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="283" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A283" s="6">
         <v>282</v>
       </c>
@@ -11238,7 +11237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="284" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="6">
         <v>283</v>
       </c>
@@ -11262,7 +11261,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="285" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A285" s="6">
         <v>284</v>
       </c>
@@ -11286,7 +11285,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="286" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A286" s="6">
         <v>285</v>
       </c>
@@ -11310,7 +11309,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="287" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A287" s="6">
         <v>286</v>
       </c>
@@ -11334,7 +11333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="288" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A288" s="6">
         <v>287</v>
       </c>
@@ -11358,7 +11357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="289" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A289" s="6">
         <v>288</v>
       </c>
@@ -11382,7 +11381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="290" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A290" s="6">
         <v>289</v>
       </c>
@@ -11406,7 +11405,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="291" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A291" s="6">
         <v>290</v>
       </c>
@@ -11430,7 +11429,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="292" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A292" s="6">
         <v>291</v>
       </c>
@@ -11454,7 +11453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="293" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A293" s="6">
         <v>292</v>
       </c>
@@ -11478,7 +11477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="294" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A294" s="6">
         <v>293</v>
       </c>
@@ -11502,7 +11501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="295" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A295" s="6">
         <v>294</v>
       </c>
@@ -11526,7 +11525,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="296" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A296" s="6">
         <v>295</v>
       </c>
@@ -11550,7 +11549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="297" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A297" s="6">
         <v>296</v>
       </c>
@@ -11574,7 +11573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="298" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A298" s="6">
         <v>297</v>
       </c>
@@ -11598,7 +11597,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="299" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A299" s="6">
         <v>298</v>
       </c>
@@ -11622,7 +11621,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="300" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A300" s="6">
         <v>299</v>
       </c>
@@ -11646,7 +11645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="301" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A301" s="6">
         <v>300</v>
       </c>
@@ -11670,7 +11669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="302" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A302" s="6">
         <v>301</v>
       </c>
@@ -11694,7 +11693,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="303" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A303" s="6">
         <v>302</v>
       </c>
@@ -11718,7 +11717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="304" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A304" s="6">
         <v>303</v>
       </c>
@@ -11742,7 +11741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="305" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A305" s="6">
         <v>304</v>
       </c>
@@ -11766,7 +11765,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="306" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A306" s="6">
         <v>305</v>
       </c>
@@ -11790,7 +11789,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="307" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A307" s="6">
         <v>306</v>
       </c>
@@ -11814,7 +11813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="308" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A308" s="6">
         <v>307</v>
       </c>
@@ -11838,7 +11837,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="309" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A309" s="6">
         <v>308</v>
       </c>
@@ -11862,7 +11861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="310" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A310" s="6">
         <v>309</v>
       </c>
@@ -11886,7 +11885,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="311" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A311" s="6">
         <v>310</v>
       </c>
@@ -11910,7 +11909,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="312" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="6">
         <v>311</v>
       </c>
@@ -11934,7 +11933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="313" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A313" s="6">
         <v>312</v>
       </c>
@@ -11958,7 +11957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="314" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A314" s="6">
         <v>313</v>
       </c>
@@ -11982,7 +11981,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="315" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A315" s="6">
         <v>314</v>
       </c>
@@ -12006,7 +12005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="316" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A316" s="6">
         <v>315</v>
       </c>
@@ -12030,7 +12029,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="317" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A317" s="6">
         <v>316</v>
       </c>
@@ -12054,7 +12053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="318" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A318" s="6">
         <v>317</v>
       </c>
@@ -12078,7 +12077,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="319" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A319" s="6">
         <v>318</v>
       </c>
@@ -12102,7 +12101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="320" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A320" s="6">
         <v>319</v>
       </c>
@@ -12126,7 +12125,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="321" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A321" s="6">
         <v>320</v>
       </c>
@@ -12150,7 +12149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="322" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A322" s="6">
         <v>321</v>
       </c>
@@ -12174,7 +12173,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="323" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A323" s="6">
         <v>322</v>
       </c>
@@ -12198,7 +12197,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="324" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A324" s="6">
         <v>323</v>
       </c>
@@ -12222,7 +12221,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="325" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A325" s="6">
         <v>324</v>
       </c>
@@ -12246,7 +12245,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="326" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A326" s="6">
         <v>325</v>
       </c>
@@ -12270,7 +12269,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="327" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A327" s="6">
         <v>326</v>
       </c>
@@ -12294,7 +12293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="328" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A328" s="6">
         <v>327</v>
       </c>
@@ -12318,7 +12317,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="329" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A329" s="6">
         <v>328</v>
       </c>
@@ -12342,7 +12341,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="330" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A330" s="6">
         <v>329</v>
       </c>
@@ -12366,7 +12365,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="331" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A331" s="6">
         <v>330</v>
       </c>
@@ -12390,7 +12389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="332" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A332" s="6">
         <v>331</v>
       </c>
@@ -12414,7 +12413,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="333" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A333" s="6">
         <v>332</v>
       </c>
@@ -12438,7 +12437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="334" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A334" s="6">
         <v>333</v>
       </c>
@@ -12462,7 +12461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="335" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A335" s="6">
         <v>334</v>
       </c>
@@ -12486,7 +12485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="336" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A336" s="6">
         <v>335</v>
       </c>
@@ -12510,7 +12509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="337" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A337" s="6">
         <v>336</v>
       </c>
@@ -12534,7 +12533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="338" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A338" s="6">
         <v>337</v>
       </c>
@@ -12558,7 +12557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="339" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A339" s="6">
         <v>338</v>
       </c>
@@ -12582,7 +12581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="340" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A340" s="6">
         <v>339</v>
       </c>
@@ -12606,7 +12605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="341" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A341" s="6">
         <v>340</v>
       </c>
@@ -12630,7 +12629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="342" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="6">
         <v>341</v>
       </c>
@@ -12654,7 +12653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="343" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A343" s="6">
         <v>342</v>
       </c>
@@ -12678,7 +12677,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="344" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A344" s="6">
         <v>343</v>
       </c>
@@ -12702,7 +12701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="345" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A345" s="6">
         <v>344</v>
       </c>
@@ -12726,7 +12725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="346" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A346" s="6">
         <v>345</v>
       </c>
@@ -12750,7 +12749,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="347" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A347" s="6">
         <v>346</v>
       </c>
@@ -12774,7 +12773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="348" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A348" s="6">
         <v>347</v>
       </c>
@@ -12798,7 +12797,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="349" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A349" s="6">
         <v>348</v>
       </c>
@@ -12822,7 +12821,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="350" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A350" s="6">
         <v>349</v>
       </c>
@@ -12846,7 +12845,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="351" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A351" s="6">
         <v>350</v>
       </c>
@@ -12870,7 +12869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="352" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A352" s="6">
         <v>351</v>
       </c>
@@ -12894,7 +12893,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="353" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A353" s="6">
         <v>352</v>
       </c>
@@ -12918,7 +12917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="354" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A354" s="6">
         <v>353</v>
       </c>
@@ -12942,7 +12941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="355" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A355" s="6">
         <v>354</v>
       </c>
@@ -12966,7 +12965,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="356" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A356" s="6">
         <v>355</v>
       </c>
@@ -12990,7 +12989,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="357" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A357" s="6">
         <v>356</v>
       </c>
@@ -13014,7 +13013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="358" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A358" s="6">
         <v>357</v>
       </c>
@@ -13038,7 +13037,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="359" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A359" s="6">
         <v>358</v>
       </c>
@@ -13062,7 +13061,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="360" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A360" s="6">
         <v>359</v>
       </c>
@@ -13086,7 +13085,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="361" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A361" s="6">
         <v>360</v>
       </c>
@@ -13110,7 +13109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="362" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A362" s="6">
         <v>361</v>
       </c>
@@ -13134,7 +13133,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="363" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A363" s="6">
         <v>362</v>
       </c>
@@ -13158,7 +13157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="364" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A364" s="6">
         <v>363</v>
       </c>
@@ -13182,7 +13181,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="365" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A365" s="6">
         <v>364</v>
       </c>
@@ -13206,7 +13205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="366" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A366" s="6">
         <v>365</v>
       </c>
@@ -13230,7 +13229,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="367" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A367" s="6">
         <v>366</v>
       </c>
@@ -13254,7 +13253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="368" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A368" s="6">
         <v>367</v>
       </c>
@@ -13278,7 +13277,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="369" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A369" s="6">
         <v>368</v>
       </c>
@@ -13302,7 +13301,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="370" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A370" s="6">
         <v>369</v>
       </c>
@@ -13326,7 +13325,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="371" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A371" s="6">
         <v>370</v>
       </c>
@@ -13350,7 +13349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="372" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A372" s="6">
         <v>371</v>
       </c>
@@ -13374,7 +13373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="373" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A373" s="6">
         <v>372</v>
       </c>
@@ -13398,7 +13397,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="374" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A374" s="6">
         <v>373</v>
       </c>
@@ -13422,7 +13421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="375" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A375" s="6">
         <v>374</v>
       </c>
@@ -13446,7 +13445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="376" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A376" s="6">
         <v>375</v>
       </c>
@@ -13470,7 +13469,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="377" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A377" s="6">
         <v>376</v>
       </c>
@@ -13494,7 +13493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="378" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="6">
         <v>377</v>
       </c>
@@ -13518,7 +13517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="379" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A379" s="6">
         <v>378</v>
       </c>
@@ -13542,7 +13541,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="380" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A380" s="6">
         <v>379</v>
       </c>
@@ -13566,7 +13565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="381" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A381" s="6">
         <v>380</v>
       </c>
@@ -13590,7 +13589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="382" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A382" s="6">
         <v>381</v>
       </c>
@@ -13614,7 +13613,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="383" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A383" s="6">
         <v>382</v>
       </c>
@@ -13638,7 +13637,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="384" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A384" s="6">
         <v>383</v>
       </c>
@@ -13662,7 +13661,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="385" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A385" s="6">
         <v>384</v>
       </c>
@@ -13686,7 +13685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="386" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A386" s="6">
         <v>385</v>
       </c>
@@ -13710,7 +13709,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="387" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A387" s="6">
         <v>386</v>
       </c>
@@ -13734,7 +13733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="388" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A388" s="6">
         <v>387</v>
       </c>
@@ -13758,7 +13757,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="389" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A389" s="6">
         <v>388</v>
       </c>
@@ -13782,7 +13781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="390" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A390" s="6">
         <v>389</v>
       </c>
@@ -13806,7 +13805,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="391" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A391" s="6">
         <v>390</v>
       </c>
@@ -13830,7 +13829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="392" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A392" s="6">
         <v>391</v>
       </c>
@@ -13854,7 +13853,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="393" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A393" s="6">
         <v>392</v>
       </c>
@@ -13878,7 +13877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="394" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A394" s="6">
         <v>393</v>
       </c>
@@ -13902,7 +13901,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="395" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A395" s="6">
         <v>394</v>
       </c>
@@ -13926,7 +13925,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="396" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A396" s="6">
         <v>395</v>
       </c>
@@ -13950,7 +13949,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="397" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A397" s="6">
         <v>396</v>
       </c>
@@ -13974,7 +13973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="398" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A398" s="6">
         <v>397</v>
       </c>
@@ -13998,7 +13997,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="399" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A399" s="6">
         <v>398</v>
       </c>
@@ -14022,7 +14021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="400" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A400" s="6">
         <v>399</v>
       </c>
@@ -14046,7 +14045,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="401" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A401" s="6">
         <v>400</v>
       </c>
@@ -14070,7 +14069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="402" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A402" s="6">
         <v>401</v>
       </c>
@@ -14094,7 +14093,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="403" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A403" s="6">
         <v>402</v>
       </c>
@@ -14118,7 +14117,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="404" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A404" s="6">
         <v>403</v>
       </c>
@@ -14142,7 +14141,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="405" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A405" s="6">
         <v>404</v>
       </c>
@@ -14166,7 +14165,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="406" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A406" s="6">
         <v>405</v>
       </c>
@@ -14190,7 +14189,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="407" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A407" s="6">
         <v>406</v>
       </c>
@@ -14214,7 +14213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="408" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A408" s="6">
         <v>407</v>
       </c>
@@ -14238,7 +14237,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="409" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A409" s="6">
         <v>408</v>
       </c>
@@ -14262,7 +14261,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="410" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A410" s="6">
         <v>409</v>
       </c>
@@ -14286,7 +14285,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="411" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A411" s="6">
         <v>410</v>
       </c>
@@ -14310,7 +14309,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="412" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A412" s="6">
         <v>411</v>
       </c>
@@ -14334,7 +14333,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="413" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A413" s="6">
         <v>412</v>
       </c>
@@ -14358,7 +14357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="414" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A414" s="6">
         <v>413</v>
       </c>
@@ -14382,7 +14381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="415" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A415" s="6">
         <v>414</v>
       </c>
@@ -14406,7 +14405,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="416" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A416" s="6">
         <v>415</v>
       </c>
@@ -14430,7 +14429,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="417" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A417" s="6">
         <v>416</v>
       </c>
@@ -14454,7 +14453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="418" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A418" s="6">
         <v>417</v>
       </c>
@@ -14478,7 +14477,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="419" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A419" s="6">
         <v>418</v>
       </c>
@@ -14502,7 +14501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="420" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A420" s="6">
         <v>419</v>
       </c>
@@ -14526,7 +14525,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="421" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A421" s="6">
         <v>420</v>
       </c>
@@ -14550,7 +14549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="422" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A422" s="6">
         <v>421</v>
       </c>
@@ -14574,7 +14573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="423" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A423" s="6">
         <v>422</v>
       </c>
@@ -14598,7 +14597,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="424" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A424" s="6">
         <v>423</v>
       </c>
@@ -14622,7 +14621,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="425" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A425" s="6">
         <v>424</v>
       </c>
@@ -14646,7 +14645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="426" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A426" s="6">
         <v>425</v>
       </c>
@@ -14670,7 +14669,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="427" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A427" s="6">
         <v>426</v>
       </c>
@@ -14694,7 +14693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="428" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A428" s="6">
         <v>427</v>
       </c>
@@ -14718,7 +14717,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="429" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A429" s="6">
         <v>428</v>
       </c>
@@ -14742,7 +14741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="430" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A430" s="6">
         <v>429</v>
       </c>
@@ -14766,7 +14765,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="431" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A431" s="6">
         <v>430</v>
       </c>
@@ -14790,7 +14789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="432" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A432" s="6">
         <v>431</v>
       </c>
@@ -14814,7 +14813,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="433" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A433" s="6">
         <v>432</v>
       </c>
@@ -14838,7 +14837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="434" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A434" s="6">
         <v>433</v>
       </c>
@@ -14862,7 +14861,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="435" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A435" s="6">
         <v>434</v>
       </c>
@@ -14886,7 +14885,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="436" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A436" s="6">
         <v>435</v>
       </c>
@@ -14910,7 +14909,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="437" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A437" s="6">
         <v>436</v>
       </c>
@@ -14934,7 +14933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="438" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A438" s="6">
         <v>437</v>
       </c>
@@ -14958,7 +14957,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="439" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A439" s="6">
         <v>438</v>
       </c>
@@ -14982,7 +14981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="440" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A440" s="6">
         <v>439</v>
       </c>
@@ -15006,7 +15005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="441" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A441" s="6">
         <v>440</v>
       </c>
@@ -15030,7 +15029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="442" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A442" s="6">
         <v>441</v>
       </c>
@@ -15054,7 +15053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="443" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A443" s="6">
         <v>442</v>
       </c>
@@ -15078,7 +15077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="444" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A444" s="6">
         <v>443</v>
       </c>
@@ -15102,7 +15101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="445" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A445" s="6">
         <v>444</v>
       </c>
@@ -15126,7 +15125,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="446" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A446" s="6">
         <v>445</v>
       </c>
@@ -15150,7 +15149,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="447" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A447" s="6">
         <v>446</v>
       </c>
@@ -15174,7 +15173,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="448" spans="1:7" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A448" s="6">
         <v>447</v>
       </c>
@@ -15198,7 +15197,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="449" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A449" s="6">
         <v>448</v>
       </c>
@@ -15222,7 +15221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="450" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A450" s="6">
         <v>449</v>
       </c>
@@ -15246,7 +15245,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="451" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A451" s="6">
         <v>450</v>
       </c>
@@ -15270,7 +15269,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="452" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A452" s="6">
         <v>451</v>
       </c>
@@ -15294,7 +15293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="453" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A453" s="6">
         <v>452</v>
       </c>
@@ -15318,7 +15317,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="454" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="6">
         <v>453</v>
       </c>
@@ -15342,7 +15341,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="455" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A455" s="6">
         <v>454</v>
       </c>
@@ -15366,7 +15365,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="456" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="6">
         <v>455</v>
       </c>
@@ -15390,7 +15389,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="457" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A457" s="6">
         <v>456</v>
       </c>
@@ -15414,7 +15413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="458" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A458" s="6">
         <v>457</v>
       </c>
@@ -15438,7 +15437,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="459" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A459" s="6">
         <v>458</v>
       </c>
@@ -15462,7 +15461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="460" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A460" s="6">
         <v>459</v>
       </c>
@@ -15486,7 +15485,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="461" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A461" s="6">
         <v>460</v>
       </c>
@@ -15510,7 +15509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="462" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A462" s="6">
         <v>461</v>
       </c>
@@ -15534,7 +15533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="463" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A463" s="6">
         <v>462</v>
       </c>
@@ -15558,7 +15557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="464" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A464" s="6">
         <v>463</v>
       </c>
@@ -15582,7 +15581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="465" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A465" s="6">
         <v>464</v>
       </c>
@@ -15606,7 +15605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="466" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A466" s="6">
         <v>465</v>
       </c>
@@ -15630,7 +15629,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="467" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A467" s="6">
         <v>466</v>
       </c>
@@ -15654,7 +15653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="468" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A468" s="6">
         <v>467</v>
       </c>
@@ -15678,7 +15677,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="469" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A469" s="6">
         <v>468</v>
       </c>
@@ -15702,7 +15701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="470" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A470" s="6">
         <v>469</v>
       </c>
@@ -15726,7 +15725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="471" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A471" s="6">
         <v>470</v>
       </c>
@@ -15750,7 +15749,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="472" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A472" s="6">
         <v>471</v>
       </c>
@@ -15774,7 +15773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="473" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A473" s="6">
         <v>472</v>
       </c>
@@ -15798,7 +15797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="474" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A474" s="6">
         <v>473</v>
       </c>
@@ -15822,7 +15821,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="475" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A475" s="6">
         <v>474</v>
       </c>
@@ -15846,7 +15845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="476" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A476" s="6">
         <v>475</v>
       </c>
@@ -15870,7 +15869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="477" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A477" s="6">
         <v>476</v>
       </c>
@@ -15894,7 +15893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="478" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A478" s="6">
         <v>477</v>
       </c>
@@ -15918,7 +15917,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="479" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A479" s="6">
         <v>478</v>
       </c>
@@ -15942,7 +15941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="480" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A480" s="6">
         <v>479</v>
       </c>
@@ -15966,7 +15965,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="481" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A481" s="6">
         <v>480</v>
       </c>
@@ -15990,7 +15989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="482" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A482" s="6">
         <v>481</v>
       </c>
@@ -16014,7 +16013,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="483" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A483" s="6">
         <v>482</v>
       </c>
@@ -16038,7 +16037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="484" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="6">
         <v>483</v>
       </c>
@@ -16062,7 +16061,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="485" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A485" s="6">
         <v>484</v>
       </c>
@@ -16086,7 +16085,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="486" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A486" s="6">
         <v>485</v>
       </c>
@@ -16110,7 +16109,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="487" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A487" s="6">
         <v>486</v>
       </c>
@@ -16134,7 +16133,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="488" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A488" s="6">
         <v>487</v>
       </c>
@@ -16158,7 +16157,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="489" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A489" s="6">
         <v>488</v>
       </c>
@@ -16182,7 +16181,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="490" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="6">
         <v>489</v>
       </c>
@@ -16206,7 +16205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="491" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A491" s="6">
         <v>490</v>
       </c>
@@ -16230,7 +16229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="492" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A492" s="6">
         <v>491</v>
       </c>
@@ -16254,7 +16253,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="493" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A493" s="6">
         <v>492</v>
       </c>
@@ -16278,7 +16277,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="494" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A494" s="6">
         <v>493</v>
       </c>
@@ -16302,7 +16301,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="495" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A495" s="6">
         <v>494</v>
       </c>
@@ -16326,7 +16325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="496" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A496" s="6">
         <v>495</v>
       </c>
@@ -16350,7 +16349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="497" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A497" s="6">
         <v>496</v>
       </c>
@@ -16374,7 +16373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="498" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A498" s="6">
         <v>497</v>
       </c>
@@ -16398,7 +16397,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="499" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A499" s="6">
         <v>498</v>
       </c>
@@ -16422,7 +16421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="500" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A500" s="6">
         <v>499</v>
       </c>
@@ -16446,7 +16445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="501" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A501" s="6">
         <v>500</v>
       </c>
@@ -16470,7 +16469,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="502" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A502" s="6">
         <v>501</v>
       </c>
@@ -16494,7 +16493,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="503" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A503" s="6">
         <v>502</v>
       </c>
@@ -16518,7 +16517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="504" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A504" s="6">
         <v>503</v>
       </c>
@@ -16542,7 +16541,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="505" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A505" s="6">
         <v>504</v>
       </c>
@@ -16566,7 +16565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="506" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A506" s="6">
         <v>505</v>
       </c>
@@ -16590,7 +16589,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="507" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A507" s="6">
         <v>506</v>
       </c>
@@ -16614,7 +16613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="508" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A508" s="6">
         <v>507</v>
       </c>
@@ -16638,7 +16637,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="509" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A509" s="6">
         <v>508</v>
       </c>
@@ -16662,7 +16661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="510" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A510" s="6">
         <v>509</v>
       </c>
@@ -16686,7 +16685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="511" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A511" s="6">
         <v>510</v>
       </c>
@@ -16710,7 +16709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="512" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A512" s="6">
         <v>511</v>
       </c>
@@ -16734,7 +16733,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="513" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A513" s="6">
         <v>512</v>
       </c>
@@ -16758,7 +16757,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="514" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" s="6">
         <v>513</v>
       </c>
@@ -16782,7 +16781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="515" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A515" s="6">
         <v>514</v>
       </c>
@@ -16806,7 +16805,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="516" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A516" s="6">
         <v>515</v>
       </c>
@@ -16830,7 +16829,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="517" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A517" s="6">
         <v>516</v>
       </c>
@@ -16854,7 +16853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="518" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" s="6">
         <v>517</v>
       </c>
@@ -16878,7 +16877,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="519" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A519" s="6">
         <v>518</v>
       </c>
@@ -16902,7 +16901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="520" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A520" s="6">
         <v>519</v>
       </c>
@@ -16926,7 +16925,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="521" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A521" s="6">
         <v>520</v>
       </c>
@@ -16950,7 +16949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="522" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A522" s="6">
         <v>521</v>
       </c>
@@ -16974,7 +16973,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="523" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A523" s="6">
         <v>522</v>
       </c>
@@ -16998,7 +16997,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="524" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A524" s="6">
         <v>523</v>
       </c>
@@ -17022,7 +17021,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="525" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A525" s="6">
         <v>524</v>
       </c>
@@ -17046,7 +17045,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="526" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A526" s="6">
         <v>525</v>
       </c>
@@ -17070,7 +17069,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="527" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A527" s="6">
         <v>526</v>
       </c>
@@ -17094,7 +17093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="528" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A528" s="6">
         <v>527</v>
       </c>
@@ -17118,7 +17117,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="529" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A529" s="6">
         <v>528</v>
       </c>
@@ -17142,7 +17141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="530" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A530" s="6">
         <v>529</v>
       </c>
@@ -17166,7 +17165,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="531" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A531" s="6">
         <v>530</v>
       </c>
@@ -17190,7 +17189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="532" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A532" s="6">
         <v>531</v>
       </c>
@@ -17214,7 +17213,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="533" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A533" s="6">
         <v>532</v>
       </c>
@@ -17238,7 +17237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="534" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A534" s="6">
         <v>533</v>
       </c>
@@ -17262,7 +17261,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="535" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A535" s="6">
         <v>534</v>
       </c>
@@ -17286,7 +17285,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="536" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A536" s="6">
         <v>535</v>
       </c>
@@ -17310,7 +17309,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="537" spans="1:7" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A537" s="6">
         <v>536</v>
       </c>
@@ -17334,7 +17333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="538" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A538" s="6">
         <v>537</v>
       </c>
@@ -17358,7 +17357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="539" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A539" s="6">
         <v>538</v>
       </c>
@@ -17382,7 +17381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="540" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A540" s="6">
         <v>539</v>
       </c>
@@ -17406,7 +17405,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="541" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A541" s="6">
         <v>540</v>
       </c>
@@ -17430,7 +17429,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="542" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A542" s="6">
         <v>541</v>
       </c>
@@ -17454,7 +17453,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="543" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A543" s="6">
         <v>542</v>
       </c>
@@ -17478,7 +17477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="544" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A544" s="6">
         <v>543</v>
       </c>
@@ -17502,7 +17501,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="545" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A545" s="6">
         <v>544</v>
       </c>
@@ -17526,7 +17525,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="546" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A546" s="6">
         <v>545</v>
       </c>
@@ -17550,7 +17549,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="547" spans="1:7" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A547" s="6">
         <v>546</v>
       </c>
@@ -17574,7 +17573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="548" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A548" s="6">
         <v>547</v>
       </c>
@@ -17598,7 +17597,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="549" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A549" s="6">
         <v>548</v>
       </c>
@@ -17622,7 +17621,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="550" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A550" s="6">
         <v>549</v>
       </c>
@@ -17646,7 +17645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="551" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A551" s="6">
         <v>550</v>
       </c>
@@ -17670,7 +17669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="552" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A552" s="6">
         <v>551</v>
       </c>
@@ -17694,7 +17693,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="553" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A553" s="6">
         <v>552</v>
       </c>
@@ -17718,7 +17717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="554" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A554" s="6">
         <v>553</v>
       </c>
@@ -17742,7 +17741,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="555" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A555" s="6">
         <v>554</v>
       </c>
@@ -17766,7 +17765,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="556" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A556" s="6">
         <v>555</v>
       </c>
@@ -17790,7 +17789,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="557" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A557" s="6">
         <v>556</v>
       </c>
@@ -17814,7 +17813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="558" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A558" s="6">
         <v>557</v>
       </c>
@@ -17838,7 +17837,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="559" spans="1:7" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A559" s="6">
         <v>558</v>
       </c>
@@ -17862,7 +17861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="560" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A560" s="6">
         <v>559</v>
       </c>
@@ -17886,7 +17885,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="561" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A561" s="6">
         <v>560</v>
       </c>
@@ -17910,7 +17909,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="562" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A562" s="6">
         <v>561</v>
       </c>
@@ -17934,7 +17933,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="563" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A563" s="6">
         <v>562</v>
       </c>
@@ -17958,7 +17957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="564" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A564" s="6">
         <v>563</v>
       </c>
@@ -17982,7 +17981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="565" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A565" s="6">
         <v>564</v>
       </c>
@@ -18006,7 +18005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="566" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A566" s="6">
         <v>565</v>
       </c>
@@ -18030,7 +18029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="567" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A567" s="6">
         <v>566</v>
       </c>
@@ -18054,7 +18053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="568" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A568" s="6">
         <v>567</v>
       </c>
@@ -18078,7 +18077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="569" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A569" s="6">
         <v>568</v>
       </c>
@@ -18102,7 +18101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="570" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A570" s="6">
         <v>569</v>
       </c>
@@ -18126,7 +18125,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="571" spans="1:7" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A571" s="6">
         <v>570</v>
       </c>
@@ -18150,7 +18149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="572" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A572" s="6">
         <v>571</v>
       </c>
@@ -18174,7 +18173,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="573" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A573" s="6">
         <v>572</v>
       </c>
@@ -18222,7 +18221,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="575" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A575" s="6">
         <v>574</v>
       </c>
@@ -18246,7 +18245,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="576" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A576" s="6">
         <v>575</v>
       </c>
@@ -18270,7 +18269,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="577" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A577" s="6">
         <v>576</v>
       </c>
@@ -18294,7 +18293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="578" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A578" s="6">
         <v>577</v>
       </c>
@@ -18318,7 +18317,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="579" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A579" s="6">
         <v>578</v>
       </c>
@@ -18342,7 +18341,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="580" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A580" s="6">
         <v>579</v>
       </c>
@@ -18366,7 +18365,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="581" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A581" s="6">
         <v>580</v>
       </c>
@@ -18390,7 +18389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="582" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A582" s="6">
         <v>581</v>
       </c>
@@ -18414,7 +18413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="583" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A583" s="6">
         <v>582</v>
       </c>
@@ -18438,7 +18437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="584" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584" s="6">
         <v>583</v>
       </c>
@@ -18462,7 +18461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="585" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A585" s="6">
         <v>584</v>
       </c>
@@ -18486,7 +18485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="586" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A586" s="6">
         <v>585</v>
       </c>
@@ -18510,7 +18509,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="587" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A587" s="6">
         <v>586</v>
       </c>
@@ -18534,7 +18533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="588" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A588" s="6">
         <v>587</v>
       </c>
@@ -18558,7 +18557,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="589" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A589" s="6">
         <v>588</v>
       </c>
@@ -18582,7 +18581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="590" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A590" s="6">
         <v>589</v>
       </c>
@@ -18606,7 +18605,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="591" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A591" s="6">
         <v>590</v>
       </c>
@@ -18630,7 +18629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="592" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A592" s="6">
         <v>591</v>
       </c>
@@ -18654,7 +18653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="593" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A593" s="6">
         <v>592</v>
       </c>
@@ -18678,7 +18677,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="594" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A594" s="6">
         <v>593</v>
       </c>
@@ -18702,7 +18701,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="595" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A595" s="6">
         <v>594</v>
       </c>
@@ -18726,7 +18725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="596" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A596" s="6">
         <v>595</v>
       </c>
@@ -18750,7 +18749,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="597" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A597" s="6">
         <v>596</v>
       </c>
@@ -18774,7 +18773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="598" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A598" s="6">
         <v>597</v>
       </c>
@@ -18798,7 +18797,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="599" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A599" s="6">
         <v>598</v>
       </c>
@@ -18822,7 +18821,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="600" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A600" s="6">
         <v>599</v>
       </c>
@@ -18846,7 +18845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="601" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A601" s="6">
         <v>600</v>
       </c>
@@ -18870,7 +18869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="602" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A602" s="6">
         <v>601</v>
       </c>
@@ -18894,7 +18893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="603" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A603" s="6">
         <v>602</v>
       </c>
@@ -18942,7 +18941,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="605" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A605" s="6">
         <v>604</v>
       </c>
@@ -18966,7 +18965,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="606" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A606" s="6">
         <v>605</v>
       </c>
@@ -18990,7 +18989,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="607" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A607" s="6">
         <v>606</v>
       </c>
@@ -19014,7 +19013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="608" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A608" s="6">
         <v>607</v>
       </c>
@@ -19038,7 +19037,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="609" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A609" s="6">
         <v>608</v>
       </c>
@@ -19062,7 +19061,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="610" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A610" s="6">
         <v>609</v>
       </c>
@@ -19086,7 +19085,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="611" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A611" s="6">
         <v>610</v>
       </c>
@@ -19110,7 +19109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="612" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A612" s="6">
         <v>611</v>
       </c>
@@ -19134,7 +19133,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="613" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A613" s="6">
         <v>612</v>
       </c>
@@ -19158,7 +19157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="614" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A614" s="6">
         <v>613</v>
       </c>
@@ -19182,7 +19181,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="615" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A615" s="6">
         <v>614</v>
       </c>
@@ -19206,7 +19205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="616" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A616" s="6">
         <v>615</v>
       </c>
@@ -19230,7 +19229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="617" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A617" s="6">
         <v>616</v>
       </c>
@@ -19254,7 +19253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="618" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A618" s="6">
         <v>617</v>
       </c>
@@ -19278,7 +19277,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="619" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A619" s="6">
         <v>618</v>
       </c>
@@ -19302,7 +19301,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="620" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A620" s="6">
         <v>619</v>
       </c>
@@ -19326,7 +19325,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="621" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A621" s="6">
         <v>620</v>
       </c>
@@ -19350,7 +19349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="622" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A622" s="6">
         <v>621</v>
       </c>
@@ -19374,7 +19373,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="623" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A623" s="6">
         <v>622</v>
       </c>
@@ -19398,7 +19397,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="624" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A624" s="6">
         <v>623</v>
       </c>
@@ -19422,7 +19421,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="625" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A625" s="6">
         <v>624</v>
       </c>
@@ -19446,7 +19445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="626" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A626" s="6">
         <v>625</v>
       </c>
@@ -19470,7 +19469,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="627" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A627" s="6">
         <v>626</v>
       </c>
@@ -19494,7 +19493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="628" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A628" s="6">
         <v>627</v>
       </c>
@@ -19518,7 +19517,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="629" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A629" s="6">
         <v>628</v>
       </c>
@@ -19542,7 +19541,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="630" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A630" s="6">
         <v>629</v>
       </c>
@@ -19566,7 +19565,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="631" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A631" s="6">
         <v>630</v>
       </c>
@@ -19590,7 +19589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="632" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A632" s="6">
         <v>631</v>
       </c>
@@ -19614,7 +19613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="633" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A633" s="6">
         <v>632</v>
       </c>
@@ -19638,7 +19637,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="634" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A634" s="6">
         <v>633</v>
       </c>
@@ -19662,7 +19661,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="635" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A635" s="6">
         <v>634</v>
       </c>
@@ -19686,7 +19685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="636" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A636" s="6">
         <v>635</v>
       </c>
@@ -19710,7 +19709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="637" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A637" s="6">
         <v>636</v>
       </c>
@@ -19734,7 +19733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="638" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A638" s="6">
         <v>637</v>
       </c>
@@ -19758,7 +19757,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="639" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A639" s="6">
         <v>638</v>
       </c>
@@ -19782,7 +19781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="640" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A640" s="6">
         <v>639</v>
       </c>
@@ -19806,7 +19805,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="641" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A641" s="6">
         <v>640</v>
       </c>
@@ -19830,7 +19829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="642" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A642" s="6">
         <v>641</v>
       </c>
@@ -19854,7 +19853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="643" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A643" s="6">
         <v>642</v>
       </c>
@@ -19878,7 +19877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="644" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A644" s="6">
         <v>643</v>
       </c>
@@ -19902,7 +19901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="645" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A645" s="6">
         <v>644</v>
       </c>
@@ -19926,7 +19925,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="646" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A646" s="6">
         <v>645</v>
       </c>
@@ -19950,7 +19949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="647" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A647" s="6">
         <v>646</v>
       </c>
@@ -19974,7 +19973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="648" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A648" s="6">
         <v>647</v>
       </c>
@@ -19998,7 +19997,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="649" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A649" s="6">
         <v>648</v>
       </c>
@@ -20022,7 +20021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="650" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A650" s="6">
         <v>649</v>
       </c>
@@ -20046,7 +20045,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="651" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A651" s="6">
         <v>650</v>
       </c>
@@ -20070,7 +20069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="652" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A652" s="6">
         <v>651</v>
       </c>
@@ -20094,7 +20093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="653" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A653" s="6">
         <v>652</v>
       </c>
@@ -20118,7 +20117,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="654" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A654" s="6">
         <v>653</v>
       </c>
@@ -20142,7 +20141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="655" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A655" s="6">
         <v>654</v>
       </c>
@@ -20166,7 +20165,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="656" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A656" s="6">
         <v>655</v>
       </c>
@@ -20190,7 +20189,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="657" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A657" s="6">
         <v>656</v>
       </c>
@@ -20214,7 +20213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="658" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A658" s="6">
         <v>657</v>
       </c>
@@ -20238,7 +20237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="659" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A659" s="6">
         <v>658</v>
       </c>
@@ -20262,7 +20261,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="660" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A660" s="6">
         <v>659</v>
       </c>
@@ -20286,7 +20285,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="661" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A661" s="6">
         <v>660</v>
       </c>
@@ -20310,7 +20309,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="662" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A662" s="6">
         <v>661</v>
       </c>
@@ -20334,7 +20333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="663" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A663" s="6">
         <v>662</v>
       </c>
@@ -20358,7 +20357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="664" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A664" s="6">
         <v>663</v>
       </c>
@@ -20382,7 +20381,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="665" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A665" s="6">
         <v>664</v>
       </c>
@@ -20406,7 +20405,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="666" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A666" s="6">
         <v>665</v>
       </c>
@@ -20430,7 +20429,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="667" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A667" s="6">
         <v>666</v>
       </c>
@@ -20454,7 +20453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="668" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A668" s="6">
         <v>667</v>
       </c>
@@ -20478,7 +20477,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="669" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A669" s="6">
         <v>668</v>
       </c>
@@ -20502,7 +20501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="670" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A670" s="6">
         <v>669</v>
       </c>
@@ -20526,7 +20525,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="671" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A671" s="6">
         <v>670</v>
       </c>
@@ -20550,7 +20549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="672" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A672" s="6">
         <v>671</v>
       </c>
@@ -20574,7 +20573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="673" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A673" s="6">
         <v>672</v>
       </c>
@@ -20598,7 +20597,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="674" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A674" s="6">
         <v>673</v>
       </c>
@@ -20622,7 +20621,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="675" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A675" s="6">
         <v>674</v>
       </c>
@@ -20646,7 +20645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="676" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A676" s="6">
         <v>675</v>
       </c>
@@ -20670,7 +20669,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="677" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A677" s="6">
         <v>676</v>
       </c>
@@ -20694,7 +20693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="678" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A678" s="6">
         <v>677</v>
       </c>
@@ -20718,7 +20717,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="679" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A679" s="6">
         <v>678</v>
       </c>
@@ -20742,7 +20741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="680" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A680" s="6">
         <v>679</v>
       </c>
@@ -20766,7 +20765,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="681" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A681" s="6">
         <v>680</v>
       </c>
@@ -20790,7 +20789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="682" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A682" s="6">
         <v>681</v>
       </c>
@@ -20814,7 +20813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="683" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A683" s="6">
         <v>682</v>
       </c>
@@ -20838,7 +20837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="684" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A684" s="6">
         <v>683</v>
       </c>
@@ -20862,7 +20861,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="685" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A685" s="6">
         <v>684</v>
       </c>
@@ -20886,7 +20885,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="686" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A686" s="6">
         <v>685</v>
       </c>
@@ -20910,7 +20909,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="687" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A687" s="6">
         <v>686</v>
       </c>
@@ -20934,7 +20933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="688" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A688" s="6">
         <v>687</v>
       </c>
@@ -20958,7 +20957,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="689" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A689" s="6">
         <v>688</v>
       </c>
@@ -20982,7 +20981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="690" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A690" s="6">
         <v>689</v>
       </c>
@@ -21006,7 +21005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="691" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A691" s="6">
         <v>690</v>
       </c>
@@ -21030,7 +21029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="692" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A692" s="6">
         <v>691</v>
       </c>
@@ -21054,7 +21053,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="693" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A693" s="6">
         <v>692</v>
       </c>
@@ -21078,7 +21077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="694" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A694" s="6">
         <v>693</v>
       </c>
@@ -21102,7 +21101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="695" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A695" s="6">
         <v>694</v>
       </c>
@@ -21126,7 +21125,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="696" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A696" s="6">
         <v>695</v>
       </c>
@@ -21150,7 +21149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="697" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A697" s="6">
         <v>696</v>
       </c>
@@ -21174,7 +21173,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="698" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A698" s="6">
         <v>697</v>
       </c>
@@ -21198,7 +21197,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="699" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A699" s="6">
         <v>698</v>
       </c>
@@ -21222,7 +21221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="700" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A700" s="6">
         <v>699</v>
       </c>
@@ -21246,7 +21245,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="701" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A701" s="6">
         <v>700</v>
       </c>
@@ -21270,7 +21269,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="702" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A702" s="6">
         <v>701</v>
       </c>
@@ -21294,7 +21293,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="703" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A703" s="6">
         <v>702</v>
       </c>
@@ -21318,7 +21317,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="704" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A704" s="6">
         <v>703</v>
       </c>
@@ -21342,7 +21341,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="705" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A705" s="6">
         <v>704</v>
       </c>
@@ -21366,7 +21365,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="706" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A706" s="6">
         <v>705</v>
       </c>
@@ -21390,7 +21389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="707" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A707" s="6">
         <v>706</v>
       </c>
@@ -21414,7 +21413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="708" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A708" s="6">
         <v>707</v>
       </c>
@@ -21438,7 +21437,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="709" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A709" s="6">
         <v>708</v>
       </c>
@@ -21462,7 +21461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="710" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A710" s="6">
         <v>709</v>
       </c>
@@ -21486,7 +21485,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="711" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A711" s="6">
         <v>710</v>
       </c>
@@ -21510,7 +21509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="712" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A712" s="6">
         <v>711</v>
       </c>
@@ -21534,7 +21533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="713" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A713" s="6">
         <v>712</v>
       </c>
@@ -21558,7 +21557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="714" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A714" s="6">
         <v>713</v>
       </c>
@@ -21582,7 +21581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="715" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A715" s="6">
         <v>714</v>
       </c>
@@ -21606,7 +21605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="716" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A716" s="6">
         <v>715</v>
       </c>
@@ -21630,7 +21629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="717" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A717" s="6">
         <v>716</v>
       </c>
@@ -21654,7 +21653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="718" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A718" s="6">
         <v>717</v>
       </c>
@@ -21678,7 +21677,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="719" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A719" s="6">
         <v>718</v>
       </c>
@@ -21702,7 +21701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="720" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A720" s="6">
         <v>719</v>
       </c>
@@ -21726,7 +21725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="721" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A721" s="6">
         <v>720</v>
       </c>
@@ -21750,7 +21749,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="722" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A722" s="6">
         <v>721</v>
       </c>
@@ -21774,7 +21773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="723" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A723" s="6">
         <v>722</v>
       </c>
@@ -21798,7 +21797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="724" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A724" s="6">
         <v>723</v>
       </c>
@@ -21822,7 +21821,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="725" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A725" s="6">
         <v>724</v>
       </c>
@@ -21846,7 +21845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="726" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A726" s="6">
         <v>725</v>
       </c>
@@ -21870,7 +21869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="727" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A727" s="6">
         <v>726</v>
       </c>
@@ -21894,7 +21893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="728" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A728" s="6">
         <v>727</v>
       </c>
@@ -21918,7 +21917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="729" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A729" s="6">
         <v>728</v>
       </c>
@@ -21942,7 +21941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="730" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A730" s="6">
         <v>729</v>
       </c>
@@ -21966,7 +21965,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="731" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A731" s="6">
         <v>730</v>
       </c>
@@ -21990,7 +21989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="732" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A732" s="6">
         <v>731</v>
       </c>
@@ -22014,7 +22013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="733" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A733" s="6">
         <v>732</v>
       </c>
@@ -22038,7 +22037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="734" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A734" s="6">
         <v>733</v>
       </c>
@@ -22062,7 +22061,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="735" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A735" s="6">
         <v>734</v>
       </c>
@@ -22086,7 +22085,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="736" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A736" s="6">
         <v>735</v>
       </c>
@@ -22110,7 +22109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="737" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A737" s="6">
         <v>736</v>
       </c>
@@ -22134,7 +22133,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="738" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A738" s="6">
         <v>737</v>
       </c>
@@ -22158,7 +22157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="739" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A739" s="6">
         <v>738</v>
       </c>
@@ -22182,7 +22181,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="740" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A740" s="6">
         <v>739</v>
       </c>
@@ -22206,7 +22205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="741" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A741" s="6">
         <v>740</v>
       </c>
@@ -22230,7 +22229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="742" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A742" s="6">
         <v>741</v>
       </c>
@@ -22254,7 +22253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="743" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A743" s="6">
         <v>742</v>
       </c>
@@ -22278,7 +22277,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="744" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A744" s="6">
         <v>743</v>
       </c>
@@ -22302,7 +22301,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="745" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A745" s="6">
         <v>744</v>
       </c>
@@ -22326,7 +22325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="746" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A746" s="6">
         <v>745</v>
       </c>
@@ -22350,7 +22349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="747" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A747" s="6">
         <v>746</v>
       </c>
@@ -22374,7 +22373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="748" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A748" s="6">
         <v>747</v>
       </c>
@@ -22398,7 +22397,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="749" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A749" s="6">
         <v>748</v>
       </c>
@@ -22422,7 +22421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="750" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A750" s="6">
         <v>749</v>
       </c>
@@ -22446,7 +22445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="751" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A751" s="6">
         <v>750</v>
       </c>
@@ -22470,7 +22469,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="752" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A752" s="6">
         <v>751</v>
       </c>
@@ -22494,7 +22493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="753" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A753" s="6">
         <v>752</v>
       </c>
@@ -22518,7 +22517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="754" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A754" s="6">
         <v>753</v>
       </c>
@@ -22542,7 +22541,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="755" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A755" s="6">
         <v>754</v>
       </c>
@@ -22566,7 +22565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="756" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A756" s="6">
         <v>755</v>
       </c>
@@ -22590,7 +22589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="757" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A757" s="6">
         <v>756</v>
       </c>
@@ -22614,7 +22613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="758" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A758" s="6">
         <v>757</v>
       </c>
@@ -22638,7 +22637,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="759" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A759" s="6">
         <v>758</v>
       </c>
@@ -22662,7 +22661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="760" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A760" s="6">
         <v>759</v>
       </c>
@@ -22686,7 +22685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="761" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A761" s="6">
         <v>760</v>
       </c>
@@ -22710,7 +22709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="762" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A762" s="6">
         <v>761</v>
       </c>
@@ -22734,7 +22733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="763" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A763" s="6">
         <v>762</v>
       </c>
@@ -22758,7 +22757,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="764" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A764" s="6">
         <v>763</v>
       </c>
@@ -22782,7 +22781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="765" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A765" s="6">
         <v>764</v>
       </c>
@@ -22806,7 +22805,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="766" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A766" s="6">
         <v>765</v>
       </c>
@@ -22830,7 +22829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="767" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A767" s="6">
         <v>766</v>
       </c>
@@ -22854,7 +22853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="768" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A768" s="6">
         <v>767</v>
       </c>
@@ -22878,7 +22877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="769" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A769" s="6">
         <v>768</v>
       </c>
@@ -22902,7 +22901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="770" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A770" s="6">
         <v>769</v>
       </c>
@@ -22926,7 +22925,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="771" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A771" s="6">
         <v>770</v>
       </c>
@@ -22950,7 +22949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="772" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A772" s="6">
         <v>771</v>
       </c>
@@ -22974,7 +22973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="773" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A773" s="6">
         <v>772</v>
       </c>
@@ -22998,7 +22997,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="774" spans="1:7" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A774" s="6">
         <v>773</v>
       </c>
@@ -23022,7 +23021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="775" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A775" s="6">
         <v>774</v>
       </c>
@@ -23046,7 +23045,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="776" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A776" s="6">
         <v>775</v>
       </c>
@@ -23070,7 +23069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="777" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A777" s="6">
         <v>776</v>
       </c>
@@ -23094,7 +23093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="778" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A778" s="6">
         <v>777</v>
       </c>
@@ -23118,7 +23117,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="779" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A779" s="6">
         <v>778</v>
       </c>
@@ -23142,7 +23141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="780" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A780" s="6">
         <v>779</v>
       </c>
@@ -23166,7 +23165,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="781" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A781" s="6">
         <v>780</v>
       </c>
@@ -23190,7 +23189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="782" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A782" s="6">
         <v>781</v>
       </c>
@@ -23214,7 +23213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="783" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A783" s="6">
         <v>782</v>
       </c>
@@ -23238,7 +23237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="784" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A784" s="6">
         <v>783</v>
       </c>
@@ -23262,7 +23261,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="785" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A785" s="6">
         <v>784</v>
       </c>
@@ -23286,7 +23285,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="786" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A786" s="6">
         <v>785</v>
       </c>
@@ -23310,7 +23309,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="787" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A787" s="6">
         <v>786</v>
       </c>
@@ -23334,7 +23333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="788" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A788" s="6">
         <v>787</v>
       </c>
@@ -23358,7 +23357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="789" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A789" s="6">
         <v>788</v>
       </c>
@@ -23382,7 +23381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="790" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A790" s="6">
         <v>789</v>
       </c>
@@ -23406,7 +23405,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="791" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A791" s="6">
         <v>790</v>
       </c>
@@ -23430,7 +23429,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="792" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A792" s="6">
         <v>791</v>
       </c>
@@ -23454,7 +23453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="793" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A793" s="6">
         <v>792</v>
       </c>
@@ -23478,7 +23477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="794" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A794" s="6">
         <v>793</v>
       </c>
@@ -23502,7 +23501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="795" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A795" s="6">
         <v>794</v>
       </c>
@@ -23526,7 +23525,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="796" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A796" s="6">
         <v>795</v>
       </c>
@@ -23550,7 +23549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="797" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A797" s="6">
         <v>796</v>
       </c>
@@ -23574,7 +23573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="798" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A798" s="6">
         <v>797</v>
       </c>
@@ -23598,7 +23597,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="799" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A799" s="6">
         <v>798</v>
       </c>
@@ -23622,7 +23621,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="800" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A800" s="6">
         <v>799</v>
       </c>
@@ -23646,7 +23645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="801" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A801" s="6">
         <v>800</v>
       </c>
@@ -23670,7 +23669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="802" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A802" s="6">
         <v>801</v>
       </c>
@@ -23694,7 +23693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="803" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A803" s="6">
         <v>802</v>
       </c>
@@ -23718,7 +23717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="804" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A804" s="6">
         <v>803</v>
       </c>
@@ -23742,7 +23741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="805" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A805" s="6">
         <v>804</v>
       </c>
@@ -23766,7 +23765,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="806" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A806" s="6">
         <v>805</v>
       </c>
@@ -23790,7 +23789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="807" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A807" s="6">
         <v>806</v>
       </c>
@@ -23814,7 +23813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="808" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A808" s="6">
         <v>807</v>
       </c>
@@ -23838,7 +23837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="809" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A809" s="6">
         <v>808</v>
       </c>
@@ -23862,7 +23861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="810" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A810" s="6">
         <v>809</v>
       </c>
@@ -23886,7 +23885,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="811" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A811" s="6">
         <v>810</v>
       </c>
@@ -23910,7 +23909,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="812" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A812" s="6">
         <v>811</v>
       </c>
@@ -23934,7 +23933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="813" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A813" s="6">
         <v>812</v>
       </c>
@@ -23958,7 +23957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="814" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A814" s="6">
         <v>813</v>
       </c>
@@ -23982,7 +23981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="815" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A815" s="6">
         <v>814</v>
       </c>
@@ -24006,7 +24005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="816" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A816" s="6">
         <v>815</v>
       </c>
@@ -24030,7 +24029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="817" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A817" s="6">
         <v>816</v>
       </c>
@@ -24054,7 +24053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="818" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A818" s="6">
         <v>817</v>
       </c>
@@ -24078,7 +24077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="819" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A819" s="6">
         <v>818</v>
       </c>
@@ -24102,7 +24101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="820" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A820" s="6">
         <v>819</v>
       </c>
@@ -24126,7 +24125,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="821" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A821" s="6">
         <v>820</v>
       </c>
@@ -24150,7 +24149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="822" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A822" s="6">
         <v>821</v>
       </c>
@@ -24174,7 +24173,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="823" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A823" s="6">
         <v>822</v>
       </c>
@@ -24198,7 +24197,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="824" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A824" s="6">
         <v>823</v>
       </c>
@@ -24222,7 +24221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="825" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A825" s="6">
         <v>824</v>
       </c>
@@ -24246,7 +24245,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="826" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A826" s="6">
         <v>825</v>
       </c>
@@ -24270,7 +24269,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="827" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A827" s="6">
         <v>826</v>
       </c>
@@ -24294,7 +24293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="828" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A828" s="6">
         <v>827</v>
       </c>
@@ -24318,7 +24317,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="829" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A829" s="6">
         <v>828</v>
       </c>
@@ -24342,7 +24341,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="830" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A830" s="6">
         <v>829</v>
       </c>
@@ -24366,7 +24365,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="831" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A831" s="6">
         <v>830</v>
       </c>
@@ -24390,7 +24389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="832" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A832" s="6">
         <v>831</v>
       </c>
@@ -24414,7 +24413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="833" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A833" s="6">
         <v>832</v>
       </c>
@@ -24438,7 +24437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="834" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A834" s="6">
         <v>833</v>
       </c>
@@ -24462,7 +24461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="835" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A835" s="6">
         <v>834</v>
       </c>
@@ -24486,7 +24485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="836" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A836" s="6">
         <v>835</v>
       </c>
@@ -24510,7 +24509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="837" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A837" s="6">
         <v>836</v>
       </c>
@@ -24534,7 +24533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="838" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A838" s="6">
         <v>837</v>
       </c>
@@ -24558,7 +24557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="839" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A839" s="6">
         <v>838</v>
       </c>
@@ -24582,7 +24581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="840" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A840" s="6">
         <v>839</v>
       </c>
@@ -24606,7 +24605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="841" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A841" s="6">
         <v>840</v>
       </c>
@@ -24630,7 +24629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="842" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A842" s="6">
         <v>841</v>
       </c>
@@ -24654,7 +24653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="843" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A843" s="6">
         <v>842</v>
       </c>
@@ -24678,7 +24677,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="844" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A844" s="6">
         <v>843</v>
       </c>
@@ -24702,7 +24701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="845" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A845" s="6">
         <v>844</v>
       </c>
@@ -24726,7 +24725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="846" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A846" s="6">
         <v>845</v>
       </c>
@@ -24750,7 +24749,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="847" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A847" s="6">
         <v>846</v>
       </c>
@@ -24774,7 +24773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="848" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A848" s="6">
         <v>847</v>
       </c>
@@ -24798,7 +24797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="849" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A849" s="6">
         <v>848</v>
       </c>
@@ -24822,7 +24821,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="850" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A850" s="6">
         <v>849</v>
       </c>
@@ -24846,7 +24845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="851" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A851" s="6">
         <v>850</v>
       </c>
@@ -24870,7 +24869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="852" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A852" s="6">
         <v>851</v>
       </c>
@@ -24894,7 +24893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="853" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A853" s="6">
         <v>852</v>
       </c>
@@ -24918,7 +24917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="854" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A854" s="6">
         <v>853</v>
       </c>
@@ -24942,7 +24941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="855" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A855" s="6">
         <v>854</v>
       </c>
@@ -24966,7 +24965,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="856" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A856" s="6">
         <v>855</v>
       </c>
@@ -24990,7 +24989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="857" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A857" s="6">
         <v>856</v>
       </c>
@@ -25014,7 +25013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="858" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A858" s="6">
         <v>857</v>
       </c>
@@ -25038,7 +25037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="859" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A859" s="6">
         <v>858</v>
       </c>
@@ -25062,7 +25061,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="860" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A860" s="6">
         <v>859</v>
       </c>
@@ -25086,7 +25085,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="861" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A861" s="6">
         <v>860</v>
       </c>
@@ -25110,7 +25109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="862" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A862" s="6">
         <v>861</v>
       </c>
@@ -25134,7 +25133,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="863" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A863" s="6">
         <v>862</v>
       </c>
@@ -25158,7 +25157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="864" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A864" s="6">
         <v>863</v>
       </c>
@@ -25182,7 +25181,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="865" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A865" s="6">
         <v>864</v>
       </c>
@@ -25206,7 +25205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="866" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A866" s="6">
         <v>865</v>
       </c>
@@ -25230,7 +25229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="867" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A867" s="6">
         <v>866</v>
       </c>
@@ -25254,7 +25253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="868" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A868" s="6">
         <v>867</v>
       </c>
@@ -25278,7 +25277,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="869" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A869" s="6">
         <v>868</v>
       </c>
@@ -25302,7 +25301,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="870" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A870" s="6">
         <v>869</v>
       </c>
@@ -25326,7 +25325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="871" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A871" s="6">
         <v>870</v>
       </c>
@@ -25350,7 +25349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="872" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A872" s="6">
         <v>871</v>
       </c>
@@ -25374,7 +25373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="873" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A873" s="6">
         <v>872</v>
       </c>
@@ -25398,7 +25397,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="874" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A874" s="6">
         <v>873</v>
       </c>
@@ -25422,7 +25421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="875" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A875" s="6">
         <v>874</v>
       </c>
@@ -25446,7 +25445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="876" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A876" s="6">
         <v>875</v>
       </c>
@@ -25470,7 +25469,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="877" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A877" s="6">
         <v>876</v>
       </c>
@@ -25494,7 +25493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="878" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A878" s="6">
         <v>877</v>
       </c>
@@ -25518,7 +25517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="879" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A879" s="6">
         <v>878</v>
       </c>
@@ -25542,7 +25541,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="880" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A880" s="6">
         <v>879</v>
       </c>
@@ -25566,7 +25565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="881" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A881" s="6">
         <v>880</v>
       </c>
@@ -25590,7 +25589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="882" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A882" s="6">
         <v>881</v>
       </c>
@@ -25614,7 +25613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="883" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A883" s="6">
         <v>882</v>
       </c>
@@ -25638,7 +25637,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="884" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A884" s="6">
         <v>883</v>
       </c>
@@ -25662,7 +25661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="885" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A885" s="6">
         <v>884</v>
       </c>
@@ -25686,7 +25685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="886" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A886" s="6">
         <v>885</v>
       </c>
@@ -25710,7 +25709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="887" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A887" s="6">
         <v>886</v>
       </c>
@@ -25734,7 +25733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="888" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A888" s="6">
         <v>887</v>
       </c>
@@ -25758,7 +25757,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="889" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A889" s="6">
         <v>888</v>
       </c>
@@ -25782,7 +25781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="890" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A890" s="6">
         <v>889</v>
       </c>
@@ -25806,7 +25805,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="891" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A891" s="6">
         <v>890</v>
       </c>
@@ -25830,7 +25829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="892" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A892" s="6">
         <v>891</v>
       </c>
@@ -25854,7 +25853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="893" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A893" s="6">
         <v>892</v>
       </c>
@@ -25878,7 +25877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="894" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A894" s="6">
         <v>893</v>
       </c>
@@ -25902,7 +25901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="895" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A895" s="6">
         <v>894</v>
       </c>
@@ -25926,7 +25925,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="896" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A896" s="6">
         <v>895</v>
       </c>
@@ -25950,7 +25949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="897" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A897" s="6">
         <v>896</v>
       </c>
@@ -25974,7 +25973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="898" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A898" s="6">
         <v>897</v>
       </c>
@@ -25998,7 +25997,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="899" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A899" s="6">
         <v>898</v>
       </c>
@@ -26022,7 +26021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="900" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A900" s="6">
         <v>899</v>
       </c>
@@ -26046,7 +26045,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="901" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A901" s="6">
         <v>900</v>
       </c>
@@ -26070,7 +26069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="902" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A902" s="6">
         <v>901</v>
       </c>
@@ -26094,7 +26093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="903" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A903" s="6">
         <v>902</v>
       </c>
@@ -26118,7 +26117,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="904" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A904" s="6">
         <v>903</v>
       </c>
@@ -26142,7 +26141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="905" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A905" s="6">
         <v>904</v>
       </c>
@@ -26166,7 +26165,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="906" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A906" s="6">
         <v>905</v>
       </c>
@@ -26190,7 +26189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="907" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A907" s="6">
         <v>906</v>
       </c>
@@ -26214,7 +26213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="908" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A908" s="6">
         <v>907</v>
       </c>
@@ -26238,7 +26237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="909" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A909" s="6">
         <v>908</v>
       </c>
@@ -26262,7 +26261,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="910" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A910" s="6">
         <v>909</v>
       </c>
@@ -26286,7 +26285,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="911" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A911" s="6">
         <v>910</v>
       </c>
@@ -26310,7 +26309,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="912" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A912" s="6">
         <v>911</v>
       </c>
@@ -26334,7 +26333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="913" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A913" s="6">
         <v>912</v>
       </c>
@@ -26358,7 +26357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="914" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A914" s="6">
         <v>913</v>
       </c>
@@ -26382,7 +26381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="915" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A915" s="6">
         <v>914</v>
       </c>
@@ -26406,7 +26405,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="916" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A916" s="6">
         <v>915</v>
       </c>
@@ -26430,7 +26429,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="917" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A917" s="6">
         <v>916</v>
       </c>
@@ -26454,7 +26453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="918" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A918" s="6">
         <v>917</v>
       </c>
@@ -26478,7 +26477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="919" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A919" s="6">
         <v>918</v>
       </c>
@@ -26502,7 +26501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="920" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A920" s="6">
         <v>919</v>
       </c>
@@ -26526,7 +26525,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="921" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A921" s="6">
         <v>920</v>
       </c>
@@ -26550,7 +26549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="922" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A922" s="6">
         <v>921</v>
       </c>
@@ -26574,7 +26573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="923" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A923" s="6">
         <v>922</v>
       </c>
@@ -26598,7 +26597,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="924" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A924" s="6">
         <v>923</v>
       </c>
@@ -26622,7 +26621,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="925" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A925" s="6">
         <v>924</v>
       </c>
@@ -26646,7 +26645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="926" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A926" s="6">
         <v>925</v>
       </c>
@@ -26670,7 +26669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="927" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A927" s="6">
         <v>926</v>
       </c>
@@ -26694,7 +26693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="928" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A928" s="6">
         <v>927</v>
       </c>
@@ -26718,7 +26717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="929" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A929" s="6">
         <v>928</v>
       </c>
@@ -26742,7 +26741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="930" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A930" s="6">
         <v>929</v>
       </c>
@@ -26766,7 +26765,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="931" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A931" s="6">
         <v>930</v>
       </c>
@@ -26790,7 +26789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="932" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A932" s="6">
         <v>931</v>
       </c>
@@ -26814,7 +26813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="933" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A933" s="6">
         <v>932</v>
       </c>
@@ -26838,7 +26837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="934" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A934" s="6">
         <v>933</v>
       </c>
@@ -26862,7 +26861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="935" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A935" s="6">
         <v>934</v>
       </c>
@@ -26886,7 +26885,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="936" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A936" s="6">
         <v>935</v>
       </c>
@@ -26910,7 +26909,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="937" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A937" s="6">
         <v>936</v>
       </c>
@@ -26934,7 +26933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="938" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A938" s="6">
         <v>937</v>
       </c>
@@ -26958,7 +26957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="939" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A939" s="6">
         <v>938</v>
       </c>
@@ -26982,7 +26981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="940" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A940" s="6">
         <v>939</v>
       </c>
@@ -27006,7 +27005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="941" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A941" s="6">
         <v>940</v>
       </c>
@@ -27030,7 +27029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="942" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A942" s="6">
         <v>941</v>
       </c>
@@ -27054,7 +27053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="943" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A943" s="6">
         <v>942</v>
       </c>
@@ -27078,7 +27077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="944" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A944" s="6">
         <v>943</v>
       </c>
@@ -27102,7 +27101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="945" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A945" s="6">
         <v>944</v>
       </c>
@@ -27126,7 +27125,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="946" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A946" s="6">
         <v>945</v>
       </c>
@@ -27150,7 +27149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="947" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A947" s="6">
         <v>946</v>
       </c>
@@ -27174,7 +27173,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="948" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A948" s="6">
         <v>947</v>
       </c>
@@ -27198,7 +27197,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="949" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A949" s="6">
         <v>948</v>
       </c>
@@ -27222,7 +27221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="950" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A950" s="6">
         <v>949</v>
       </c>
@@ -27246,7 +27245,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="951" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A951" s="6">
         <v>950</v>
       </c>
@@ -27270,7 +27269,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="952" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A952" s="6">
         <v>951</v>
       </c>
@@ -27294,7 +27293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="953" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A953" s="6">
         <v>952</v>
       </c>
@@ -27318,7 +27317,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="954" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A954" s="6">
         <v>953</v>
       </c>
@@ -27342,7 +27341,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="955" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A955" s="6">
         <v>954</v>
       </c>
@@ -27366,7 +27365,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="956" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A956" s="6">
         <v>955</v>
       </c>
@@ -27390,7 +27389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="957" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A957" s="6">
         <v>956</v>
       </c>
@@ -27414,7 +27413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="958" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A958" s="6">
         <v>957</v>
       </c>
@@ -27438,7 +27437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="959" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A959" s="6">
         <v>958</v>
       </c>
@@ -27462,7 +27461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="960" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A960" s="6">
         <v>959</v>
       </c>
@@ -27486,7 +27485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="961" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A961" s="6">
         <v>960</v>
       </c>
@@ -27510,7 +27509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="962" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A962" s="6">
         <v>961</v>
       </c>
@@ -27534,7 +27533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="963" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A963" s="6">
         <v>962</v>
       </c>
@@ -27558,7 +27557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="964" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A964" s="6">
         <v>963</v>
       </c>
@@ -27582,7 +27581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="965" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A965" s="6">
         <v>964</v>
       </c>
@@ -27606,7 +27605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="966" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A966" s="6">
         <v>965</v>
       </c>
@@ -27630,7 +27629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="967" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A967" s="6">
         <v>966</v>
       </c>
@@ -27654,7 +27653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="968" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A968" s="6">
         <v>967</v>
       </c>
@@ -27678,7 +27677,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="969" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A969" s="6">
         <v>968</v>
       </c>
@@ -27702,7 +27701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="970" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A970" s="6">
         <v>969</v>
       </c>
@@ -27726,7 +27725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="971" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A971" s="6">
         <v>970</v>
       </c>
@@ -27750,7 +27749,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="972" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A972" s="6">
         <v>971</v>
       </c>
@@ -27774,7 +27773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="973" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A973" s="6">
         <v>972</v>
       </c>
@@ -27798,7 +27797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="974" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A974" s="6">
         <v>973</v>
       </c>
@@ -27822,7 +27821,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="975" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A975" s="6">
         <v>974</v>
       </c>
@@ -27846,7 +27845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="976" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A976" s="6">
         <v>975</v>
       </c>
@@ -27870,7 +27869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="977" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A977" s="6">
         <v>976</v>
       </c>
@@ -27894,7 +27893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="978" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A978" s="6">
         <v>977</v>
       </c>
@@ -27918,7 +27917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="979" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A979" s="6">
         <v>978</v>
       </c>
@@ -27942,7 +27941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="980" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A980" s="6">
         <v>979</v>
       </c>
@@ -27966,7 +27965,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="981" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A981" s="6">
         <v>980</v>
       </c>
@@ -27990,7 +27989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="982" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A982" s="6">
         <v>981</v>
       </c>
@@ -28014,7 +28013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="983" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A983" s="6">
         <v>982</v>
       </c>
@@ -28038,7 +28037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="984" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A984" s="6">
         <v>983</v>
       </c>
@@ -28062,7 +28061,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="985" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A985" s="6">
         <v>984</v>
       </c>
@@ -28086,7 +28085,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="986" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A986" s="6">
         <v>985</v>
       </c>
@@ -28110,7 +28109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="987" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A987" s="6">
         <v>986</v>
       </c>
@@ -28134,7 +28133,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="988" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A988" s="6">
         <v>987</v>
       </c>
@@ -28158,7 +28157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="989" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A989" s="6">
         <v>988</v>
       </c>
@@ -28182,7 +28181,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="990" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A990" s="6">
         <v>989</v>
       </c>
@@ -28206,7 +28205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="991" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A991" s="6">
         <v>990</v>
       </c>
@@ -28230,7 +28229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="992" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A992" s="6">
         <v>991</v>
       </c>
@@ -28254,7 +28253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="993" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A993" s="6">
         <v>992</v>
       </c>
@@ -28278,7 +28277,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="994" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A994" s="6">
         <v>993</v>
       </c>
@@ -28302,7 +28301,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="995" spans="1:7" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A995" s="6">
         <v>994</v>
       </c>
@@ -28326,7 +28325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="996" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A996" s="6">
         <v>995</v>
       </c>
@@ -28350,7 +28349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="997" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A997" s="6">
         <v>996</v>
       </c>
@@ -28374,7 +28373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="998" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A998" s="6">
         <v>997</v>
       </c>
@@ -28398,7 +28397,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="999" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A999" s="6">
         <v>998</v>
       </c>
@@ -28422,7 +28421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1000" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1000" s="6">
         <v>999</v>
       </c>
@@ -28447,17 +28446,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1000">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="0348262666"/>
-        <filter val="0363438888"/>
-        <filter val="0812668468"/>
-        <filter val="0822565777"/>
-        <filter val="0854202156"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G1000"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A2:G296 A298:G1000 A297 C297:G297" numberStoredAsText="1"/>
